--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_8_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_8_sawtooth_10_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01629428788482312</v>
+        <v>0.05624512345497867</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01629428788482312</v>
+        <v>0.05624512345497867</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.051574593738539</v>
+        <v>6.110644904297192</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1.3517520074958522, 12.751397179981225]</t>
+          <t>[-0.1428067177620278, 12.36409652635641]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01646331897201381</v>
+        <v>0.05523550725474125</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01646331897201381</v>
+        <v>0.05523550725474125</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.484316048542925</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.5912636101681574, -0.37736848691769254]</t>
+          <t>[-2.8302636518826962, 0.1886842434588467]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.009716957682787131</v>
+        <v>0.08480323047554172</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009716957682787131</v>
+        <v>0.08480323047554172</v>
       </c>
       <c r="T2" t="n">
-        <v>10.31971534123116</v>
+        <v>9.351868281680549</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.837321811084681, 13.802108871377644]</t>
+          <t>[5.683296526364677, 13.02044003699642]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.476209988750867e-07</v>
+        <v>5.874208266032355e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.476209988750867e-07</v>
+        <v>5.874208266032355e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.132692692692839</v>
+        <v>5.457057057057185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.559159159159196</v>
+        <v>-0.7795795795796012</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.70622622622648</v>
+        <v>11.69369369369397</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3209434128139226</v>
+        <v>0.1152084980655497</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3209434128139226</v>
+        <v>0.1152084980655497</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.532806623964117</v>
+        <v>5.872170455999512</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.486577079062876, 12.55219032699111]</t>
+          <t>[-1.1328019466853299, 12.877142858684355]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2609638832686536</v>
+        <v>0.09825493480512226</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2609638832686536</v>
+        <v>0.09825493480512226</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.088105627611234</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.213974594246123, 1.0377633390236554]</t>
+          <t>[-3.3963163822592355, -0.12578949563923114]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1852248142328432</v>
+        <v>0.03540268785503486</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1852248142328432</v>
+        <v>0.03540268785503486</v>
       </c>
       <c r="T3" t="n">
-        <v>11.14944120706258</v>
+        <v>11.5260802344408</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.920398997132473, 15.37848341699269]</t>
+          <t>[7.491165945597304, 15.560994523284306]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.256085660208186e-06</v>
+        <v>7.24229488824335e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.256085660208186e-06</v>
+        <v>7.24229488824335e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>8.627347347347552</v>
+        <v>7.276076076076251</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.287687687687789</v>
+        <v>0.5197197197197347</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.54238238238289</v>
+        <v>14.03243243243277</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4257801781644189</v>
+        <v>0.1491289684539777</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4257801781644189</v>
+        <v>0.1491289684539777</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.265721720449397</v>
+        <v>5.643759383735324</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.549690416068769, 13.081133856967563]</t>
+          <t>[-1.8433524704347803, 13.130871237905428]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.334963090094949</v>
+        <v>0.1359527819256268</v>
       </c>
       <c r="O4" t="n">
-        <v>0.334963090094949</v>
+        <v>0.1359527819256268</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.264210921506157</v>
+        <v>-2.503210963220696</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.396369362923008, 0.8679475199106941]</t>
+          <t>[-5.6102115055097, 0.6037895790683088]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1523404942712971</v>
+        <v>0.1116398729154915</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1523404942712971</v>
+        <v>0.1116398729154915</v>
       </c>
       <c r="T4" t="n">
-        <v>11.58513119507364</v>
+        <v>10.59015997360164</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.045060239137275, 16.125202151010004]</t>
+          <t>[6.6791495578946645, 14.501170389308623]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.773417854904039e-06</v>
+        <v>2.003848045717405e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>5.773417854904039e-06</v>
+        <v>2.003848045717405e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.354954954955179</v>
+        <v>10.34242242242267</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.586066066066151</v>
+        <v>-2.494654654654715</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.29597597597651</v>
+        <v>23.17949949950005</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.100034679945861</v>
+        <v>0.1201356163724553</v>
       </c>
       <c r="I5" t="n">
-        <v>0.100034679945861</v>
+        <v>0.1201356163724553</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.357119550360933</v>
+        <v>6.527888284871821</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.4480113829567376, 13.162250483678603]</t>
+          <t>[-0.5777618838220899, 13.633538453565732]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06638143545403019</v>
+        <v>0.07083707530980954</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06638143545403019</v>
+        <v>0.07083707530980954</v>
       </c>
       <c r="P5" t="n">
-        <v>3.138447916198812</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.6918687163476562, 4.585027116049968]</t>
+          <t>[1.4402897250691948, 4.660500813433507]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.24527618150006e-05</v>
+        <v>0.0004116590112663854</v>
       </c>
       <c r="S5" t="n">
-        <v>7.24527618150006e-05</v>
+        <v>0.0004116590112663854</v>
       </c>
       <c r="T5" t="n">
-        <v>10.30093677962553</v>
+        <v>10.42654302362264</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.324906407943158, 14.276967151307911]</t>
+          <t>[6.139549396941618, 14.713536650303652]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.436027155607647e-06</v>
+        <v>1.288507379859638e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.436027155607647e-06</v>
+        <v>1.288507379859638e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>12.9929929929933</v>
+        <v>13.35679679679711</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.016216216216383</v>
+        <v>6.704384384384543</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.96976976977022</v>
+        <v>20.00920920920968</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06706557396854484</v>
+        <v>0.1334174382042195</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06706557396854484</v>
+        <v>0.1334174382042195</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.135110719017014</v>
+        <v>6.957630835678573</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.11753745659764903, 12.152683981436379]</t>
+          <t>[-1.132717244475753, 15.0479789158329]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.04586868240519348</v>
+        <v>0.0901039642271293</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04586868240519348</v>
+        <v>0.0901039642271293</v>
       </c>
       <c r="P6" t="n">
-        <v>3.125868966634889</v>
+        <v>-3.107000542289005</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.8050792624229643, 4.446658670846814]</t>
+          <t>[-4.67936923777939, -1.5346318467986184]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.991816123148027e-05</v>
+        <v>0.0002483342663790467</v>
       </c>
       <c r="S6" t="n">
-        <v>1.991816123148027e-05</v>
+        <v>0.0002483342663790467</v>
       </c>
       <c r="T6" t="n">
-        <v>10.13267158760747</v>
+        <v>11.45579540038615</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.601313404262742, 13.664029770952189]</t>
+          <t>[6.799210445002728, 16.11238035576957]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.63536053657765e-07</v>
+        <v>1.068620546607058e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>6.63536053657765e-07</v>
+        <v>1.068620546607058e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>13.04496496496528</v>
+        <v>12.83707707707738</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.587907907908092</v>
+        <v>6.340580580580737</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.50202202202246</v>
+        <v>19.33357357357403</v>
       </c>
     </row>
     <row r="7">
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.161581862266276</v>
+        <v>0.09864242581245952</v>
       </c>
       <c r="I7" t="n">
-        <v>0.161581862266276</v>
+        <v>0.09864242581245952</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.392017653314619</v>
+        <v>6.443462531136263</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.4291090612893598, 13.213144367918598]</t>
+          <t>[-1.555493823902852, 14.442418886175378]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1718027408747118</v>
+        <v>0.1116961060513666</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1718027408747118</v>
+        <v>0.1116961060513666</v>
       </c>
       <c r="P7" t="n">
-        <v>2.308237244979888</v>
+        <v>2.522079387566581</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.8239211964369622, 5.440395686396739]</t>
+          <t>[-0.25786846606042246, 5.302027241193585]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1447036917524938</v>
+        <v>0.07429455265316021</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1447036917524938</v>
+        <v>0.07429455265316021</v>
       </c>
       <c r="T7" t="n">
-        <v>10.16657002507896</v>
+        <v>11.12029586933875</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.109483587942943, 14.223656462214976]</t>
+          <t>[6.904595019179322, 15.33599671949818]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.862550825521453e-06</v>
+        <v>3.224643790211701e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>7.862550825521453e-06</v>
+        <v>3.224643790211701e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>16.42314314314353</v>
+        <v>15.53961961961999</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.482122122122204</v>
+        <v>4.053813813813909</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.36416416416486</v>
+        <v>27.02542542542606</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.157943167110804</v>
+        <v>0.2257450165414516</v>
       </c>
       <c r="I8" t="n">
-        <v>0.157943167110804</v>
+        <v>0.2257450165414516</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.71130093076133</v>
+        <v>4.904553319611129</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.5356040198981304, 10.95820588142079]</t>
+          <t>[-2.623357426075261, 12.432464065297518]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1357578484683193</v>
+        <v>0.1961001229270845</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1357578484683193</v>
+        <v>0.1961001229270845</v>
       </c>
       <c r="P8" t="n">
-        <v>1.817658211986887</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.6666843268879239, 4.302000750861699]</t>
+          <t>[-1.1761317842268095, 5.088185098606893]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1475480303254439</v>
+        <v>0.2149508666529132</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1475480303254439</v>
+        <v>0.2149508666529132</v>
       </c>
       <c r="T8" t="n">
-        <v>9.853641702108149</v>
+        <v>10.83843333757162</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.275757158871766, 13.431526245344532]</t>
+          <t>[6.678711567358745, 14.998155107784493]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.461450483519755e-06</v>
+        <v>4.012979385681348e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.461450483519755e-06</v>
+        <v>4.012979385681348e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>18.45005005005049</v>
+        <v>17.87835835835878</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.18558558558578</v>
+        <v>4.937337337337452</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.7145145145152</v>
+        <v>30.81937937938011</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1189,63 +1189,63 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0170240534986339</v>
+        <v>0.1633449993693552</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0170240534986339</v>
+        <v>0.1633449993693552</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.901693512813392</v>
+        <v>4.955556876336705</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.5987738702958953, 13.20461315533089]</t>
+          <t>[-2.1006064472468964, 12.011720199920306]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.03257376589804784</v>
+        <v>0.1640949335302511</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03257376589804784</v>
+        <v>0.1640949335302511</v>
       </c>
       <c r="P9" t="n">
-        <v>1.880552959806503</v>
+        <v>2.270500396288119</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 3.12586896663489]</t>
+          <t>[-0.8490790955648091, 5.390079888141047]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.003918021854697917</v>
+        <v>0.1496261136836932</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003918021854697917</v>
+        <v>0.1496261136836932</v>
       </c>
       <c r="T9" t="n">
-        <v>8.138983294528428</v>
+        <v>8.445075249231856</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.701349612412425, 11.57661697664443]</t>
+          <t>[4.695096647063346, 12.195053851400365]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.979368138704807e-05</v>
+        <v>4.237867527012718e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.979368138704807e-05</v>
+        <v>4.237867527012718e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>18.19019019019062</v>
+        <v>16.57905905905945</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.04496496496527</v>
+        <v>3.690010010010095</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.33541541541597</v>
+        <v>29.46810810810881</v>
       </c>
     </row>
     <row r="10">
@@ -1275,63 +1275,63 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06143096921794466</v>
+        <v>0.1981819172936363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06143096921794466</v>
+        <v>0.1981819172936363</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.429608006478373</v>
+        <v>5.21181529681497</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.4887398136011125, 13.34795582655786]</t>
+          <t>[-2.0641758507567065, 12.487806444386647]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.06773991593280737</v>
+        <v>0.1560275104833782</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06773991593280737</v>
+        <v>0.1560275104833782</v>
       </c>
       <c r="P10" t="n">
-        <v>1.163552834662887</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.4339737599553475, 2.7610794292811205]</t>
+          <t>[-1.6918687163476562, 4.421500771718968]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1493399901128654</v>
+        <v>0.3732794149452399</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1493399901128654</v>
+        <v>0.3732794149452399</v>
       </c>
       <c r="T10" t="n">
-        <v>9.901674005101329</v>
+        <v>10.35028317621828</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.112124990752772, 13.691223019449886]</t>
+          <t>[6.195015828994114, 14.505550523442453]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.818781184827813e-06</v>
+        <v>8.695694812876908e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.818781184827813e-06</v>
+        <v>8.695694812876908e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>21.15259259259309</v>
+        <v>20.32104104104152</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.55215215215249</v>
+        <v>7.691851851852036</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.7530330330337</v>
+        <v>32.95023023023101</v>
       </c>
     </row>
     <row r="11">
@@ -1361,63 +1361,63 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01070390326027881</v>
+        <v>0.04705905970973179</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01070390326027881</v>
+        <v>0.04705905970973179</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>9.52698880883999</v>
+        <v>7.583784839895801</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[1.7845509459618718, 17.269426671718108]</t>
+          <t>[-0.0632042246313631, 15.230773904422964]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01701672211945082</v>
+        <v>0.05184305447463555</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01701672211945082</v>
+        <v>0.05184305447463555</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.4088158608275005</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 1.3207897042119257]</t>
+          <t>[-1.0817896624973864, 1.8994213841523875]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.4354260866157953</v>
+        <v>0.5834138053055788</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4354260866157953</v>
+        <v>0.5834138053055788</v>
       </c>
       <c r="T11" t="n">
-        <v>12.56055869376939</v>
+        <v>11.29777076144854</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.455328955111755, 16.665788432427036]</t>
+          <t>[7.248057968727471, 15.347483554169619]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.791283354979356e-07</v>
+        <v>1.144711346379168e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.791283354979356e-07</v>
+        <v>1.144711346379168e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>24.42682682682741</v>
+        <v>24.27091091091149</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.50294294294343</v>
+        <v>18.11223223223266</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.35071071071139</v>
+        <v>30.42958958959031</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.77000000000012</v>
+        <v>22.6700000000001</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2026179254463829</v>
+        <v>0.2759368599990073</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2026179254463829</v>
+        <v>0.2759368599990073</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.310968370725311</v>
+        <v>4.613537577063477</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.64084749980748, 13.262784241258101]</t>
+          <t>[-2.8337103135392017, 12.060785467666156]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1852985455266847</v>
+        <v>0.2185846005898524</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1852985455266847</v>
+        <v>0.2185846005898524</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8742369946926551</v>
+        <v>0.7484474990534249</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, 3.9875270117636212]</t>
+          <t>[-2.390000417145388, 3.886895415252238]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5744911063120992</v>
+        <v>0.6333286146673089</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5744911063120992</v>
+        <v>0.6333286146673089</v>
       </c>
       <c r="T12" t="n">
-        <v>9.764801863018924</v>
+        <v>10.85473520434803</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.639929568412838, 13.88967415762501]</t>
+          <t>[6.832447141935235, 14.87702326676082]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.983495921864531e-05</v>
+        <v>2.132514482333647e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.983495921864531e-05</v>
+        <v>2.132514482333647e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>19.6018018018019</v>
+        <v>19.96956956956966</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.319369369369412</v>
+        <v>8.645915915915953</v>
       </c>
       <c r="Z12" t="n">
-        <v>30.8842342342344</v>
+        <v>31.29322322322337</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.77000000000012</v>
+        <v>22.6700000000001</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1473107633084962</v>
+        <v>0.04014291638903478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1473107633084962</v>
+        <v>0.04014291638903478</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.225848284994498</v>
+        <v>6.630600168642282</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.2398064868154073, 11.691503056804404]</t>
+          <t>[0.04786681484450206, 13.213333522440061]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1105298782201636</v>
+        <v>0.04842573817715534</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1105298782201636</v>
+        <v>0.04842573817715534</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03144737390980801</v>
+        <v>0.3333421634439633</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.572368695490387, 1.635263443310003]</t>
+          <t>[-1.1824212590087706, 1.8491055858966972]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.9686726462886748</v>
+        <v>0.659934361801958</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9686726462886748</v>
+        <v>0.659934361801958</v>
       </c>
       <c r="T13" t="n">
-        <v>9.819002843649562</v>
+        <v>10.96206625050889</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.0107298803044955, 13.627275806994628]</t>
+          <t>[7.311833362918543, 14.612299138099244]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.824802095626524e-06</v>
+        <v>2.644544376817493e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.824802095626524e-06</v>
+        <v>2.644544376817493e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>22.65603603603616</v>
+        <v>21.46728728728738</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.84387387387396</v>
+        <v>15.99834834834841</v>
       </c>
       <c r="Z13" t="n">
-        <v>28.46819819819835</v>
+        <v>26.93622622622635</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.77000000000012</v>
+        <v>22.6700000000001</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1038227174978008</v>
+        <v>0.06068021951580738</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1038227174978008</v>
+        <v>0.06068021951580738</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.677494270031795</v>
+        <v>7.931837071852719</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8582417763626422, 15.21323031642623]</t>
+          <t>[-0.7980091107540233, 16.66168325445946]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1221161122032375</v>
+        <v>0.07388005733003444</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1221161122032375</v>
+        <v>0.07388005733003444</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.9622896416401172</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.647842392873926, 2.6415794084238513]</t>
+          <t>[-1.440289725069194, 3.3648690083494284]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6430297957551434</v>
+        <v>0.4240848457878572</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6430297957551434</v>
+        <v>0.4240848457878572</v>
       </c>
       <c r="T14" t="n">
-        <v>12.36485306758832</v>
+        <v>13.16908475692914</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.9704578276021065, 16.75924830757454]</t>
+          <t>[8.60642779963953, 17.73174171421876]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.712243895787509e-07</v>
+        <v>5.90708456371658e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>9.712243895787509e-07</v>
+        <v>5.90708456371658e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>20.96936936936948</v>
+        <v>19.1980180180181</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.19702702702709</v>
+        <v>10.52940940940946</v>
       </c>
       <c r="Z14" t="n">
-        <v>28.74171171171187</v>
+        <v>27.86662662662675</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.77000000000012</v>
+        <v>22.6700000000001</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1651866333487968</v>
+        <v>0.203687297313258</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1651866333487968</v>
+        <v>0.203687297313258</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.881400216589584</v>
+        <v>5.747858128365227</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.6833248531686227, 13.44612528634779]</t>
+          <t>[-2.237932373170217, 13.73364862990067]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1243734841616384</v>
+        <v>0.1540839576172495</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1243734841616384</v>
+        <v>0.1540839576172495</v>
       </c>
       <c r="P15" t="n">
-        <v>1.452868674633118</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.6101055441821561, 4.515842893448392]</t>
+          <t>[-1.6855792415656943, 4.490684994320546]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3445024973348776</v>
+        <v>0.3651956927331435</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3445024973348776</v>
+        <v>0.3651956927331435</v>
       </c>
       <c r="T15" t="n">
-        <v>10.99440424330946</v>
+        <v>10.23465252021963</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.770375184951636, 15.218433301667286]</t>
+          <t>[5.84408119356802, 14.62522384687124]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.08820816732991e-06</v>
+        <v>2.52113971692669e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.08820816732991e-06</v>
+        <v>2.52113971692669e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>17.50486486486496</v>
+        <v>17.60952952952961</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.404774774774808</v>
+        <v>6.467417417417447</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.6049549549551</v>
+        <v>28.75164164164177</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_8_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_8_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05624512345497867</v>
+        <v>0.1159391128123672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05624512345497867</v>
+        <v>0.1159391128123672</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.110644904297192</v>
+        <v>5.933034086135859</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.1428067177620278, 12.36409652635641]</t>
+          <t>[-1.332599120232997, 13.198667292504716]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05523550725474125</v>
+        <v>0.1070017697631056</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05523550725474125</v>
+        <v>0.1070017697631056</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.320789704211925</v>
+        <v>-1.71073714069354</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8302636518826962, 0.1886842434588467]</t>
+          <t>[-3.3460005840035425, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.08480323047554172</v>
+        <v>0.040718230256795</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08480323047554172</v>
+        <v>0.040718230256795</v>
       </c>
       <c r="T2" t="n">
-        <v>9.351868281680549</v>
+        <v>10.74576523123028</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.683296526364677, 13.02044003699642]</t>
+          <t>[6.667671496236964, 14.823858966223597]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.874208266032355e-06</v>
+        <v>3.287199765722448e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.874208266032355e-06</v>
+        <v>3.287199765722448e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.457057057057185</v>
+        <v>7.002842842842998</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.7795795795796012</v>
+        <v>0.3089489489489541</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.69369369369397</v>
+        <v>13.69673673673704</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1152084980655497</v>
+        <v>0.2238834010687605</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1152084980655497</v>
+        <v>0.2238834010687605</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.872170455999512</v>
+        <v>5.024794069480127</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.1328019466853299, 12.877142858684355]</t>
+          <t>[-2.6511903453054178, 12.700778484265673]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09825493480512226</v>
+        <v>0.194022169151449</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09825493480512226</v>
+        <v>0.194022169151449</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.761052938949233</v>
+        <v>-1.924579283280234</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.3963163822592355, -0.12578949563923114]</t>
+          <t>[-5.0252903507872775, 1.1761317842268104]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03540268785503486</v>
+        <v>0.2177131422959853</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03540268785503486</v>
+        <v>0.2177131422959853</v>
       </c>
       <c r="T3" t="n">
-        <v>11.5260802344408</v>
+        <v>10.14321229329811</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.491165945597304, 15.560994523284306]</t>
+          <t>[6.0217028202142115, 14.264721766382]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.24229488824335e-07</v>
+        <v>1.062096120540978e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>7.24229488824335e-07</v>
+        <v>1.062096120540978e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.276076076076251</v>
+        <v>7.878198198198376</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5197197197197347</v>
+        <v>-4.814454454454568</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.03243243243277</v>
+        <v>20.57085085085132</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1491289684539777</v>
+        <v>0.3152944964718081</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1491289684539777</v>
+        <v>0.3152944964718081</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.643759383735324</v>
+        <v>4.713072185874566</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8433524704347803, 13.130871237905428]</t>
+          <t>[-3.569209198627739, 12.99535357037687]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1359527819256268</v>
+        <v>0.2577975199473355</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1359527819256268</v>
+        <v>0.2577975199473355</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.503210963220696</v>
+        <v>-2.44031621540108</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.6102115055097, 0.6037895790683088]</t>
+          <t>[-5.578764131599892, 0.6981317007977319]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1116398729154915</v>
+        <v>0.1243366766334186</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1116398729154915</v>
+        <v>0.1243366766334186</v>
       </c>
       <c r="T4" t="n">
-        <v>10.59015997360164</v>
+        <v>9.944866677741757</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.6791495578946645, 14.501170389308623]</t>
+          <t>[5.679798025958625, 14.209935329524889]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.003848045717405e-06</v>
+        <v>2.510359264373818e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.003848045717405e-06</v>
+        <v>2.510359264373818e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>10.34242242242267</v>
+        <v>9.989349349349574</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.494654654654715</v>
+        <v>-2.857777777777843</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.17949949950005</v>
+        <v>22.83647647647699</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1201356163724553</v>
+        <v>0.175813252177666</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1201356163724553</v>
+        <v>0.175813252177666</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.527888284871821</v>
+        <v>5.787244700948145</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.5777618838220899, 13.633538453565732]</t>
+          <t>[-1.5914463240642363, 13.165935725960527]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07083707530980954</v>
+        <v>0.121180256751076</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07083707530980954</v>
+        <v>0.121180256751076</v>
       </c>
       <c r="P5" t="n">
-        <v>3.050395269251351</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 4.660500813433507]</t>
+          <t>[0.8868159442565782, 5.3649219890132]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0004116590112663854</v>
+        <v>0.007272673450631428</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0004116590112663854</v>
+        <v>0.007272673450631428</v>
       </c>
       <c r="T5" t="n">
-        <v>10.42654302362264</v>
+        <v>10.52215036213067</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.139549396941618, 14.713536650303652]</t>
+          <t>[6.313228325184506, 14.731072399076828]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.288507379859638e-05</v>
+        <v>8.181370450000003e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.288507379859638e-05</v>
+        <v>8.181370450000003e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>13.35679679679711</v>
+        <v>12.92436436436466</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.704384384384543</v>
+        <v>3.758878878878964</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.00920920920968</v>
+        <v>22.08984984985035</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1334174382042195</v>
+        <v>0.2279178619403339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1334174382042195</v>
+        <v>0.2279178619403339</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.957630835678573</v>
+        <v>5.021870030232002</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.132717244475753, 15.0479789158329]</t>
+          <t>[-2.0316362450070624, 12.075376305471066]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0901039642271293</v>
+        <v>0.1584915271702738</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0901039642271293</v>
+        <v>0.1584915271702738</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.107000542289005</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.67936923777939, -1.5346318467986184]</t>
+          <t>[-0.012578949563923025, 6.138527387194471]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0002483342663790467</v>
+        <v>0.05090480188356872</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002483342663790467</v>
+        <v>0.05090480188356872</v>
       </c>
       <c r="T6" t="n">
-        <v>11.45579540038615</v>
+        <v>11.33141462504111</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.799210445002728, 16.11238035576957]</t>
+          <t>[7.350306586432282, 15.312522663649936]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.068620546607058e-05</v>
+        <v>7.771906085363156e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.068620546607058e-05</v>
+        <v>7.771906085363156e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>12.83707707707738</v>
+        <v>13.18182182182212</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.340580580580737</v>
+        <v>0.5921521521521651</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.33357357357403</v>
+        <v>25.77149149149207</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09864242581245952</v>
+        <v>0.1301089023517003</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09864242581245952</v>
+        <v>0.1301089023517003</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.443462531136263</v>
+        <v>5.903021452425314</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.555493823902852, 14.442418886175378]</t>
+          <t>[-2.0285680989019834, 13.834611003752611]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1116961060513666</v>
+        <v>0.1408619714014665</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1116961060513666</v>
+        <v>0.1408619714014665</v>
       </c>
       <c r="P7" t="n">
-        <v>2.522079387566581</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.25786846606042246, 5.302027241193585]</t>
+          <t>[-0.704421175579693, 5.572474656817931]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.07429455265316021</v>
+        <v>0.1252845438367811</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07429455265316021</v>
+        <v>0.1252845438367811</v>
       </c>
       <c r="T7" t="n">
-        <v>11.12029586933875</v>
+        <v>11.47523079521592</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.904595019179322, 15.33599671949818]</t>
+          <t>[7.340026841177892, 15.610434749253951]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.224643790211701e-06</v>
+        <v>1.266327585680571e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.224643790211701e-06</v>
+        <v>1.266327585680571e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>15.53961961961999</v>
+        <v>15.75639639639675</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.053813813813909</v>
+        <v>2.909269269269336</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.02542542542606</v>
+        <v>28.60352352352417</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2257450165414516</v>
+        <v>0.04770882503242568</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2257450165414516</v>
+        <v>0.04770882503242568</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.904553319611129</v>
+        <v>6.376609375531984</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.623357426075261, 12.432464065297518]</t>
+          <t>[-0.5784141929659299, 13.331632944029899]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1961001229270845</v>
+        <v>0.07138771113703712</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1961001229270845</v>
+        <v>0.07138771113703712</v>
       </c>
       <c r="P8" t="n">
-        <v>1.956026657190042</v>
+        <v>2.144710900648889</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.1761317842268095, 5.088185098606893]</t>
+          <t>[0.2830263651882694, 4.006395436109508]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2149508666529132</v>
+        <v>0.02491665807075472</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2149508666529132</v>
+        <v>0.02491665807075472</v>
       </c>
       <c r="T8" t="n">
-        <v>10.83843333757162</v>
+        <v>9.988562259795629</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.678711567358745, 14.998155107784493]</t>
+          <t>[6.3145910523805675, 13.66253346721069]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.012979385681348e-06</v>
+        <v>1.859639486179177e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.012979385681348e-06</v>
+        <v>1.859639486179177e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>17.87835835835878</v>
+        <v>16.94070070070108</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.937337337337452</v>
+        <v>9.319959959960162</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.81937937938011</v>
+        <v>24.561441441442</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1633449993693552</v>
+        <v>0.06160442376115161</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1633449993693552</v>
+        <v>0.06160442376115161</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.955556876336705</v>
+        <v>5.990374205831726</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.1006064472468964, 12.011720199920306]</t>
+          <t>[-0.7625133198365752, 12.743261731500027]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1640949335302511</v>
+        <v>0.08072732471149746</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1640949335302511</v>
+        <v>0.08072732471149746</v>
       </c>
       <c r="P9" t="n">
-        <v>2.270500396288119</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8490790955648091, 5.390079888141047]</t>
+          <t>[-0.7358685494895001, 5.327185140321431]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1496261136836932</v>
+        <v>0.1342066525903522</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1496261136836932</v>
+        <v>0.1342066525903522</v>
       </c>
       <c r="T9" t="n">
-        <v>8.445075249231856</v>
+        <v>8.248994024678211</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.695096647063346, 12.195053851400365]</t>
+          <t>[4.659702398101199, 11.838285651255223]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.237867527012718e-05</v>
+        <v>3.130178051757859e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.237867527012718e-05</v>
+        <v>3.130178051757859e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>16.57905905905945</v>
+        <v>16.32280280280317</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.690010010010095</v>
+        <v>3.91335335335344</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.46810810810881</v>
+        <v>28.73225225225289</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1981819172936363</v>
+        <v>0.1438445385991941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1981819172936363</v>
+        <v>0.1438445385991941</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.21181529681497</v>
+        <v>5.323522126790426</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.0641758507567065, 12.487806444386647]</t>
+          <t>[-1.2996457630345848, 11.946690016615436]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1560275104833782</v>
+        <v>0.1124612505349643</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1560275104833782</v>
+        <v>0.1124612505349643</v>
       </c>
       <c r="P10" t="n">
-        <v>1.364816027685656</v>
+        <v>1.389973926813503</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6918687163476562, 4.421500771718968]</t>
+          <t>[-0.3710790121357306, 3.151026865762736]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3732794149452399</v>
+        <v>0.1189036986122625</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3732794149452399</v>
+        <v>0.1189036986122625</v>
       </c>
       <c r="T10" t="n">
-        <v>10.35028317621828</v>
+        <v>9.623459886704067</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.195015828994114, 14.505550523442453]</t>
+          <t>[5.759205798507541, 13.487713974900593]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.695694812876908e-06</v>
+        <v>8.725094799988398e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>8.695694812876908e-06</v>
+        <v>8.725094799988398e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>20.32104104104152</v>
+        <v>20.03019019019064</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.691851851852036</v>
+        <v>12.82138138138167</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.95023023023101</v>
+        <v>27.23899899899961</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04705905970973179</v>
+        <v>0.07427991042983162</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04705905970973179</v>
+        <v>0.07427991042983162</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.583784839895801</v>
+        <v>6.98169012729843</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.0632042246313631, 15.230773904422964]</t>
+          <t>[-0.9993165032161375, 14.962696757812997]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05184305447463555</v>
+        <v>0.08487619390790879</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05184305447463555</v>
+        <v>0.08487619390790879</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4088158608275005</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 1.8994213841523875]</t>
+          <t>[-1.6855792415656952, 2.9057373492662366]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5834138053055788</v>
+        <v>0.5951090672569852</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5834138053055788</v>
+        <v>0.5951090672569852</v>
       </c>
       <c r="T11" t="n">
-        <v>11.29777076144854</v>
+        <v>11.11426390071138</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.248057968727471, 15.347483554169619]</t>
+          <t>[6.995111946596667, 15.233415854826097]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.144711346379168e-06</v>
+        <v>2.139128530975754e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.144711346379168e-06</v>
+        <v>2.139128530975754e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>24.27091091091149</v>
+        <v>23.22266266266319</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.11223223223266</v>
+        <v>13.82546546546577</v>
       </c>
       <c r="Z11" t="n">
-        <v>30.42958958959031</v>
+        <v>32.6198598598606</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.6700000000001</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2759368599990073</v>
+        <v>0.2960628921021231</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2759368599990073</v>
+        <v>0.2960628921021231</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.613537577063477</v>
+        <v>4.791740448235695</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.8337103135392017, 12.060785467666156]</t>
+          <t>[-3.4427435978074463, 13.026224494278836]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2185846005898524</v>
+        <v>0.2473529338784259</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2185846005898524</v>
+        <v>0.2473529338784259</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7484474990534249</v>
+        <v>0.6352369529781159</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, 3.886895415252238]</t>
+          <t>[-2.490632013656773, 3.7611059196130046]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6333286146673089</v>
+        <v>0.6842577833918571</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6333286146673089</v>
+        <v>0.6842577833918571</v>
       </c>
       <c r="T12" t="n">
-        <v>10.85473520434803</v>
+        <v>9.956674441581885</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.832447141935235, 14.87702326676082]</t>
+          <t>[5.628518810394702, 14.284830072769068]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.132514482333647e-06</v>
+        <v>3.084805290010095e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>2.132514482333647e-06</v>
+        <v>3.084805290010095e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>19.96956956956966</v>
+        <v>20.4050050050051</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.645915915915953</v>
+        <v>9.111811811811858</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.29322322322337</v>
+        <v>31.69819819819835</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.6700000000001</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04014291638903478</v>
+        <v>0.1818802663176277</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04014291638903478</v>
+        <v>0.1818802663176277</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.630600168642282</v>
+        <v>5.119028764224367</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.04786681484450206, 13.213333522440061]</t>
+          <t>[-1.6115747098990205, 11.849632238347755]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04842573817715534</v>
+        <v>0.1325609247723483</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04842573817715534</v>
+        <v>0.1325609247723483</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3333421634439633</v>
+        <v>0.1195000208572692</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.1824212590087706, 1.8491055858966972]</t>
+          <t>[-2.9623426223038893, 3.2013426640184277]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.659934361801958</v>
+        <v>0.938096428287811</v>
       </c>
       <c r="S13" t="n">
-        <v>0.659934361801958</v>
+        <v>0.938096428287811</v>
       </c>
       <c r="T13" t="n">
-        <v>10.96206625050889</v>
+        <v>9.877413401048397</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.311833362918543, 14.612299138099244]</t>
+          <t>[5.913142589425867, 13.841684212670927]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.644544376817493e-07</v>
+        <v>8.653395571878164e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.644544376817493e-07</v>
+        <v>8.653395571878164e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>21.46728728728738</v>
+        <v>22.26826826826838</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.99834834834841</v>
+        <v>11.13413413413419</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.93622622622635</v>
+        <v>33.40240240240256</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.6700000000001</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06068021951580738</v>
+        <v>0.07842963895627153</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06068021951580738</v>
+        <v>0.07842963895627153</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.931837071852719</v>
+        <v>7.1312684074927</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.7980091107540233, 16.66168325445946]</t>
+          <t>[-1.0238816651351215, 15.28641848012052]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.07388005733003444</v>
+        <v>0.0849928854377644</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07388005733003444</v>
+        <v>0.0849928854377644</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9622896416401172</v>
+        <v>0.8239211964369622</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.440289725069194, 3.3648690083494284]</t>
+          <t>[-2.257921446724197, 3.905763839598121]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.4240848457878572</v>
+        <v>0.5929102331169802</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4240848457878572</v>
+        <v>0.5929102331169802</v>
       </c>
       <c r="T14" t="n">
-        <v>13.16908475692914</v>
+        <v>11.79047813622029</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.60642779963953, 17.73174171421876]</t>
+          <t>[7.444701667695082, 16.13625460474549]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.90708456371658e-07</v>
+        <v>1.932649133173925e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.90708456371658e-07</v>
+        <v>1.932649133173925e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>19.1980180180181</v>
+        <v>19.72332332332342</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.52940940940946</v>
+        <v>8.589189189189231</v>
       </c>
       <c r="Z14" t="n">
-        <v>27.86662662662675</v>
+        <v>30.85745745745761</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.6700000000001</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.203687297313258</v>
+        <v>0.1192077132275302</v>
       </c>
       <c r="I15" t="n">
-        <v>0.203687297313258</v>
+        <v>0.1192077132275302</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.747858128365227</v>
+        <v>6.471649813434482</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.237932373170217, 13.73364862990067]</t>
+          <t>[-1.171766522195501, 14.115066149064464]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1540839576172495</v>
+        <v>0.0950272531091001</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1540839576172495</v>
+        <v>0.0950272531091001</v>
       </c>
       <c r="P15" t="n">
-        <v>1.402552876377426</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.6855792415656943, 4.490684994320546]</t>
+          <t>[-0.39623691126357663, 3.075553168379196]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3651956927331435</v>
+        <v>0.127103614138065</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3651956927331435</v>
+        <v>0.127103614138065</v>
       </c>
       <c r="T15" t="n">
-        <v>10.23465252021963</v>
+        <v>10.74946518516262</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.84408119356802, 14.62522384687124]</t>
+          <t>[6.488662474163824, 15.010267896161416]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.52113971692669e-05</v>
+        <v>7.013449341952693e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.52113971692669e-05</v>
+        <v>7.013449341952693e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>17.60952952952961</v>
+        <v>17.86006006006015</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.467417417417447</v>
+        <v>11.58858858858865</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.75164164164177</v>
+        <v>24.13153153153165</v>
       </c>
     </row>
   </sheetData>
